--- a/dataset/temp.xlsx
+++ b/dataset/temp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amrit/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amrit/GITHUB/LAS-Phishing/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>PayPal</t>
   </si>
@@ -1143,15 +1143,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1239,71 +1239,119 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1311,15 +1359,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1327,7 +1377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1335,7 +1385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1343,7 +1393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1351,7 +1401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1359,7 +1409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1367,7 +1417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1375,7 +1425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1383,7 +1433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1391,7 +1441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1399,7 +1449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
